--- a/logs/multihead_serial_grid/multihead_serial_grid.xlsx
+++ b/logs/multihead_serial_grid/multihead_serial_grid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mgep-my.sharepoint.com/personal/uxue_ballarin_alumni_mondragon_edu/Documents/Semestre 8-Erasmus/Simula/ship_qnn/logs/multihead_serial_grid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_AD4D2F04E46CFB4ACB3E20D455D6CCDA693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2230411B-C4C8-44DC-BBBE-DAB02F47AF3B}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_AD4D2F04E46CFB4ACB3E20D455D6CCDA693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00F58F44-2D2C-4624-AFBD-D09512EACA39}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -629,16 +629,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5134,7 +5134,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7696A9F5-FF23-4A7E-AB27-FE4E630A8373}" name="TablaDinámica1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7696A9F5-FF23-4A7E-AB27-FE4E630A8373}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="75">
     <pivotField numFmtId="164" showAll="0"/>
@@ -5405,7 +5405,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C693527-CEE1-41DF-8F02-BE2C5DC86942}" name="Tabla1" displayName="Tabla1" ref="A1:BW55" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C693527-CEE1-41DF-8F02-BE2C5DC86942}" name="Tabla1" displayName="Tabla1" ref="A1:BW55" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:BW55" xr:uid="{8C693527-CEE1-41DF-8F02-BE2C5DC86942}"/>
   <tableColumns count="75">
     <tableColumn id="1" xr3:uid="{0D75DC22-288D-4A8B-B551-2F7E6D92CB58}" name="date" dataDxfId="0"/>
@@ -18081,7 +18081,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
